--- a/data/trans_orig/Q17F_D_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6864</v>
+        <v>6967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19533</v>
+        <v>20917</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1147146158299549</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06142952235985556</v>
+        <v>0.06235799995482727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1748234826787341</v>
+        <v>0.1872068645024737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6133</v>
+        <v>6334</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19713</v>
+        <v>19682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06370199751741913</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03317654875610289</v>
+        <v>0.03426544189091402</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1066443533264517</v>
+        <v>0.1064786671011099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>24592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15721</v>
+        <v>16566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35422</v>
+        <v>35277</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08291997683885233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05300650727520949</v>
+        <v>0.05585607485609839</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1194370543858533</v>
+        <v>0.1189476542611385</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2584</v>
+        <v>1928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11278</v>
+        <v>11445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05072019998159241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02312887377136346</v>
+        <v>0.01725530576418613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.100944033796632</v>
+        <v>0.1024306415481545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>10787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5897</v>
+        <v>5836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18571</v>
+        <v>19411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05835541985301216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03189931165306049</v>
+        <v>0.03156956446853196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1004638118537476</v>
+        <v>0.1050104529783711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -857,19 +857,19 @@
         <v>16454</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9734</v>
+        <v>9757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25586</v>
+        <v>25610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0554790041257394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03282168682947764</v>
+        <v>0.03289802384825732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0862700929602648</v>
+        <v>0.08635076467978994</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>9902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5524</v>
+        <v>5058</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17748</v>
+        <v>18158</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08862084653959743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04943792139675137</v>
+        <v>0.04527291638269012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1588495266672802</v>
+        <v>0.1625193505717759</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -907,19 +907,19 @@
         <v>14827</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8699</v>
+        <v>8688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22702</v>
+        <v>23345</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08021248112725199</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04706206346153773</v>
+        <v>0.04700074441336103</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1228141803813275</v>
+        <v>0.1262915527916434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -928,19 +928,19 @@
         <v>24729</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15950</v>
+        <v>16395</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34997</v>
+        <v>35243</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08338016390784353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.053780076629465</v>
+        <v>0.05528029508310202</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1180025830081952</v>
+        <v>0.1188326204620522</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>83344</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73635</v>
+        <v>72442</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90688</v>
+        <v>90842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7459443376488553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6590416497243031</v>
+        <v>0.6483659153664967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8116720587534674</v>
+        <v>0.8130511909283009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -978,19 +978,19 @@
         <v>147459</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135386</v>
+        <v>136319</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>157131</v>
+        <v>157761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7977301015023167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7324179327539687</v>
+        <v>0.7374676319181613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8500550072419437</v>
+        <v>0.8534618096736736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -999,19 +999,19 @@
         <v>230803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216369</v>
+        <v>214597</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243502</v>
+        <v>243459</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7782208551275648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7295505621025408</v>
+        <v>0.7235753716945157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8210376763076898</v>
+        <v>0.8208924392844413</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>13128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7230</v>
+        <v>6579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21237</v>
+        <v>20839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07571064742234948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04169492616197675</v>
+        <v>0.03794390833859945</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1224801044340717</v>
+        <v>0.1201859484156201</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1124,19 +1124,19 @@
         <v>25908</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17276</v>
+        <v>17535</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37499</v>
+        <v>39290</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09088936337542237</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06060690269312433</v>
+        <v>0.06151564516748352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1315510906646612</v>
+        <v>0.1378366208109623</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1145,19 +1145,19 @@
         <v>39036</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28072</v>
+        <v>28404</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54289</v>
+        <v>53401</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08514846649458872</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06123378060938681</v>
+        <v>0.06195696478740655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1184199265414453</v>
+        <v>0.1164847234625672</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>9246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4145</v>
+        <v>4882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15713</v>
+        <v>16529</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05332354401483622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02390257527512472</v>
+        <v>0.02815323324608326</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0906191189567047</v>
+        <v>0.09532751954059775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1195,19 +1195,19 @@
         <v>26640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18089</v>
+        <v>18664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37821</v>
+        <v>37894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09345805523252787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06345803621053782</v>
+        <v>0.06547766205759029</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1326815732539097</v>
+        <v>0.1329393190244437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1216,19 +1216,19 @@
         <v>35886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25465</v>
+        <v>26026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49464</v>
+        <v>49504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07827837264437171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05554586507809616</v>
+        <v>0.05677081169014203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1078956109096706</v>
+        <v>0.1079829124026869</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>15755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9007</v>
+        <v>9107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24880</v>
+        <v>25133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09086405952081443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05194463089646471</v>
+        <v>0.05252361688971964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.143491234605594</v>
+        <v>0.1449467082957323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1266,19 +1266,19 @@
         <v>32669</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22610</v>
+        <v>22994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45203</v>
+        <v>45249</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1146093259144116</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07931923270879945</v>
+        <v>0.08066548887091275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1585786657079557</v>
+        <v>0.1587413377419325</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -1287,19 +1287,19 @@
         <v>48424</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36179</v>
+        <v>36403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63250</v>
+        <v>64176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1056283866706037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07891639078563112</v>
+        <v>0.07940554623093181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1379670060378722</v>
+        <v>0.1399865251696994</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>135263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124169</v>
+        <v>123274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145802</v>
+        <v>145580</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7801017490419999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7161187553241647</v>
+        <v>0.7109576397674753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8408819385066316</v>
+        <v>0.8396021059175025</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -1337,19 +1337,19 @@
         <v>199832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>183444</v>
+        <v>183971</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>214555</v>
+        <v>215032</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7010432554776381</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6435516747869408</v>
+        <v>0.6454016531954188</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7526945886755183</v>
+        <v>0.7543679759931385</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>317</v>
@@ -1358,19 +1358,19 @@
         <v>335095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>313670</v>
+        <v>313205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>354079</v>
+        <v>353316</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7309447741904359</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6842107573109993</v>
+        <v>0.6831960496473558</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7723543730804817</v>
+        <v>0.7706910638780151</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>24746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16520</v>
+        <v>16464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34280</v>
+        <v>34575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1818187744113334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1213749791450785</v>
+        <v>0.1209681805092548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2518655155555677</v>
+        <v>0.2540324232870719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1483,19 +1483,19 @@
         <v>28596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20312</v>
+        <v>20774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40119</v>
+        <v>39730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1475801678176194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1048296568288025</v>
+        <v>0.1072139734556059</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2070510335890351</v>
+        <v>0.2050413909713325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1504,19 +1504,19 @@
         <v>53342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38816</v>
+        <v>40782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67034</v>
+        <v>67865</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1617071060813078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1176693438817921</v>
+        <v>0.1236288801867133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2032114331553873</v>
+        <v>0.2057325208050323</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>21012</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13496</v>
+        <v>13865</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31039</v>
+        <v>30310</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1543805394752002</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0991610340202297</v>
+        <v>0.1018683283804772</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2280546772497068</v>
+        <v>0.2226928588787906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -1554,19 +1554,19 @@
         <v>12909</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7132</v>
+        <v>6979</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20869</v>
+        <v>20703</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0666215791979427</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03680885882607798</v>
+        <v>0.03601709481950446</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1077014816892761</v>
+        <v>0.1068457636750371</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -1575,19 +1575,19 @@
         <v>33921</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24137</v>
+        <v>23583</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46483</v>
+        <v>46916</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1028311547987766</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07317136065849211</v>
+        <v>0.0714913742068318</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1409141640955162</v>
+        <v>0.1422255236612274</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>10381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5643</v>
+        <v>5598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16940</v>
+        <v>17559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07627079609261012</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04145735374408354</v>
+        <v>0.04113152251836556</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1244611110782995</v>
+        <v>0.1290113977199819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1625,19 +1625,19 @@
         <v>22402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15227</v>
+        <v>14880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32510</v>
+        <v>31989</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1156126785710979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0785837787501715</v>
+        <v>0.07679175679403302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.16778084936379</v>
+        <v>0.1650940067068996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1646,19 +1646,19 @@
         <v>32783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23093</v>
+        <v>24185</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44992</v>
+        <v>44094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09938011538457739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0700057076858845</v>
+        <v>0.07331724317150543</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1363937557240918</v>
+        <v>0.1336697316690429</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>79966</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68901</v>
+        <v>68547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92967</v>
+        <v>91665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5875298900208563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5062371421917581</v>
+        <v>0.5036337969376969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6830560473765059</v>
+        <v>0.6734841083442399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1696,19 +1696,19 @@
         <v>129859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115391</v>
+        <v>117698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>140962</v>
+        <v>142186</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.67018557441334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.595520390485719</v>
+        <v>0.6074286659576031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7274870402403928</v>
+        <v>0.7338046717861526</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -1717,19 +1717,19 @@
         <v>209825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190430</v>
+        <v>192594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>227759</v>
+        <v>226746</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6360816237353382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5772850123857686</v>
+        <v>0.5838459598476606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6904488372394896</v>
+        <v>0.6873780824631601</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>23686</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16365</v>
+        <v>16499</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33574</v>
+        <v>33962</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1288283865212808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08901200075784649</v>
+        <v>0.08974012602732252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1826077996575181</v>
+        <v>0.1847183388678737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -1842,19 +1842,19 @@
         <v>37181</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25999</v>
+        <v>27091</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49507</v>
+        <v>51457</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1220577302340718</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08534805503677857</v>
+        <v>0.08893237325750415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1625196172506755</v>
+        <v>0.1689214911535977</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1863,19 +1863,19 @@
         <v>60867</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47990</v>
+        <v>47906</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76888</v>
+        <v>76772</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1246061198532281</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0982432084351952</v>
+        <v>0.09807295085665312</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1574031544934523</v>
+        <v>0.157165653846023</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>16173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9795</v>
+        <v>9586</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24995</v>
+        <v>24739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08796322727244653</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05327563176495734</v>
+        <v>0.05214120869813973</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1359492875474178</v>
+        <v>0.1345561474994419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -1913,19 +1913,19 @@
         <v>27201</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17292</v>
+        <v>18171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37605</v>
+        <v>38806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08929498738521383</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05676434754882557</v>
+        <v>0.05965117806149173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1234485049487119</v>
+        <v>0.1273929831623382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -1934,19 +1934,19 @@
         <v>43374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31497</v>
+        <v>31203</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56564</v>
+        <v>57715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08879372967804085</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06447919099510145</v>
+        <v>0.063878684874752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1157972380508047</v>
+        <v>0.1181536567127362</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>20316</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12632</v>
+        <v>13316</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28643</v>
+        <v>29565</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1105013729929938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06870577590624576</v>
+        <v>0.07242369106794631</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1557914571112838</v>
+        <v>0.1608056838410769</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -1984,19 +1984,19 @@
         <v>22943</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14915</v>
+        <v>13910</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33287</v>
+        <v>32905</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07531757876593659</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04896122678356584</v>
+        <v>0.04566423017099661</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1092739358524016</v>
+        <v>0.1080186567772579</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -2005,19 +2005,19 @@
         <v>43260</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31774</v>
+        <v>31751</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56781</v>
+        <v>56760</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08856031509271697</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06504613426528258</v>
+        <v>0.06500020350280125</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1162400968452247</v>
+        <v>0.1161983349445801</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>123681</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109841</v>
+        <v>110430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135733</v>
+        <v>135899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.672707013213279</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.597428288318008</v>
+        <v>0.6006342273870287</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7382557766771055</v>
+        <v>0.7391597785310952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -2055,19 +2055,19 @@
         <v>217294</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>202461</v>
+        <v>200165</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>233426</v>
+        <v>233946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7133297036147779</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6646339656025491</v>
+        <v>0.6570977128014855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7662869588161826</v>
+        <v>0.7679925864705499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -2076,19 +2076,19 @@
         <v>340976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>320506</v>
+        <v>321416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>361279</v>
+        <v>362576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.698039835376014</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6561326711739566</v>
+        <v>0.6579955988567159</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7396028222721526</v>
+        <v>0.7422587059194259</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>74377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1229204096985757</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -2201,19 +2201,19 @@
         <v>103460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1068492411132026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>174</v>
@@ -2222,19 +2222,19 @@
         <v>177837</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1130298724751896</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>52097</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40196</v>
+        <v>38817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68582</v>
+        <v>68450</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08609963429655268</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06643036636916297</v>
+        <v>0.06415130200349313</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1133436127784544</v>
+        <v>0.1131250066018421</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2272,19 +2272,19 @@
         <v>77537</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62145</v>
+        <v>60984</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96284</v>
+        <v>94975</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08007685257596721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06418078540672054</v>
+        <v>0.06298158054561183</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09943831938667617</v>
+        <v>0.09808587538604113</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -2293,19 +2293,19 @@
         <v>129635</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>106679</v>
+        <v>108882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150591</v>
+        <v>151550</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08239308697988801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06780286877469786</v>
+        <v>0.06920316933745896</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09571261465628383</v>
+        <v>0.09632236298102227</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>56354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43713</v>
+        <v>43585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73184</v>
+        <v>71903</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09313414231447054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07224264351937087</v>
+        <v>0.07203111520530847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1209481982039693</v>
+        <v>0.1188323281116986</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -2343,19 +2343,19 @@
         <v>92841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73839</v>
+        <v>75136</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113537</v>
+        <v>112313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09588252486244646</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07625812400136127</v>
+        <v>0.07759669845042637</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1172555971205964</v>
+        <v>0.1159923482286536</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>150</v>
@@ -2364,19 +2364,19 @@
         <v>149195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128642</v>
+        <v>127305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172786</v>
+        <v>171835</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09482555509198323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08176252726270171</v>
+        <v>0.08091258364697439</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1098191862862715</v>
+        <v>0.1092147885360028</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>422255</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>397634</v>
+        <v>398829</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>443866</v>
+        <v>443118</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6978458136904011</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6571553375956551</v>
+        <v>0.659131003881766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7335621289823773</v>
+        <v>0.7323254508724355</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>680</v>
@@ -2414,19 +2414,19 @@
         <v>694444</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>665798</v>
+        <v>666045</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>721082</v>
+        <v>723639</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7171913814483837</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6876069785721091</v>
+        <v>0.6878616894074273</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7447017637665109</v>
+        <v>0.7473423526119863</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1102</v>
@@ -2435,19 +2435,19 @@
         <v>1116700</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1082440</v>
+        <v>1080288</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1150354</v>
+        <v>1150746</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7097514854529392</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6879769955386079</v>
+        <v>0.6866089364336172</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7311413803997244</v>
+        <v>0.7313907890488199</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>21515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14692</v>
+        <v>13460</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31442</v>
+        <v>31392</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1224058173016112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08358938208910674</v>
+        <v>0.07657566751365594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1788817435972188</v>
+        <v>0.1786005994211342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2800,19 +2800,19 @@
         <v>21006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13419</v>
+        <v>13455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31173</v>
+        <v>31935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09431505382132278</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06025063344307439</v>
+        <v>0.06041153144671345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1399650148979489</v>
+        <v>0.1433864286581781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -2821,19 +2821,19 @@
         <v>42521</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31762</v>
+        <v>31457</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55018</v>
+        <v>54970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1067056453045437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07970671836581615</v>
+        <v>0.07894103638099577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1380691017513751</v>
+        <v>0.1379466488960082</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>9354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4468</v>
+        <v>4617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17514</v>
+        <v>16354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05321548160835299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02542247652428115</v>
+        <v>0.02626922846546825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09964138810590008</v>
+        <v>0.09304314974977257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -2871,19 +2871,19 @@
         <v>12428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7058</v>
+        <v>6281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22531</v>
+        <v>20737</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05580047786104302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03169124107015425</v>
+        <v>0.02820247942648515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1011624270879012</v>
+        <v>0.09310847535086739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -2892,19 +2892,19 @@
         <v>21781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14176</v>
+        <v>14074</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33733</v>
+        <v>33970</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05466025849408938</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03557390467949657</v>
+        <v>0.03531785744263292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08465319115095969</v>
+        <v>0.08524759745817553</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>6201</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2355</v>
+        <v>2080</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12891</v>
+        <v>13420</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03527930183902821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01340071225368358</v>
+        <v>0.01183522070762832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07334220805538283</v>
+        <v>0.07635255049062938</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -2942,19 +2942,19 @@
         <v>8930</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3931</v>
+        <v>3945</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16087</v>
+        <v>17360</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0400947308148274</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01765202205139707</v>
+        <v>0.01771390704097651</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07223144647187076</v>
+        <v>0.07794593517855231</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -2963,19 +2963,19 @@
         <v>15131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8356</v>
+        <v>8299</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24938</v>
+        <v>25004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03797068697039929</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02096899514861625</v>
+        <v>0.02082682023180583</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06258184770858349</v>
+        <v>0.06274849681532586</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>138698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127718</v>
+        <v>127195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149327</v>
+        <v>149389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7890993992510076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7266280833858821</v>
+        <v>0.7236514959902847</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8495701506048839</v>
+        <v>0.8499232240493688</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>170</v>
@@ -3013,19 +3013,19 @@
         <v>180354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165540</v>
+        <v>167977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190442</v>
+        <v>192041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8097897375028068</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7432745990185671</v>
+        <v>0.7542151458253957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8550841977698794</v>
+        <v>0.8622628745413707</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>297</v>
@@ -3034,19 +3034,19 @@
         <v>319052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>301634</v>
+        <v>301682</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333706</v>
+        <v>335515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8006634092309676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7569511504791399</v>
+        <v>0.7570732561866458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8374370539097681</v>
+        <v>0.8419776803801204</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>26866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17623</v>
+        <v>18847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38065</v>
+        <v>38956</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1209094852260203</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.079311200303194</v>
+        <v>0.08481916573531331</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1713083862328571</v>
+        <v>0.1753193063086101</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -3159,19 +3159,19 @@
         <v>32483</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22731</v>
+        <v>21952</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44999</v>
+        <v>43746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0932365979618591</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06524506364821839</v>
+        <v>0.06300851051078968</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1291617735619991</v>
+        <v>0.1255653892697743</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -3180,19 +3180,19 @@
         <v>59349</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45810</v>
+        <v>44817</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74800</v>
+        <v>77082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1040130747230244</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08028519457282647</v>
+        <v>0.07854537530622577</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1310912232128504</v>
+        <v>0.135092095045917</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>19530</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11767</v>
+        <v>11653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31459</v>
+        <v>30831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0878950027517499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05295708148202128</v>
+        <v>0.05244171487105403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1415792454981564</v>
+        <v>0.1387542130374796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3230,19 +3230,19 @@
         <v>37470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26654</v>
+        <v>26496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50384</v>
+        <v>51487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1075528963571626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0765065425300587</v>
+        <v>0.07605358086906966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1446188796538865</v>
+        <v>0.14778598404977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -3251,19 +3251,19 @@
         <v>57001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43077</v>
+        <v>43269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75482</v>
+        <v>74232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09989764768036319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07549612248984655</v>
+        <v>0.07583232251607572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1322880331628487</v>
+        <v>0.1300963210810932</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>27568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17987</v>
+        <v>18537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39284</v>
+        <v>38566</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1240652427014058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08094722302342501</v>
+        <v>0.08342377827940518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1767958356030261</v>
+        <v>0.1735630656711026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -3301,19 +3301,19 @@
         <v>48220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35921</v>
+        <v>36460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61949</v>
+        <v>61280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1384078389905635</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1031065650603275</v>
+        <v>0.1046520157509867</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1778154497282145</v>
+        <v>0.175895229532526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -3322,19 +3322,19 @@
         <v>75787</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58502</v>
+        <v>59734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93744</v>
+        <v>92468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1328224927948647</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.102528618778315</v>
+        <v>0.1046869484837308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1642920408784299</v>
+        <v>0.162056287167166</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>148238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>131903</v>
+        <v>133258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162244</v>
+        <v>161680</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6671302693208241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5936189875319668</v>
+        <v>0.5997149859001374</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7301651782046208</v>
+        <v>0.7276262692512993</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>214</v>
@@ -3372,19 +3372,19 @@
         <v>230217</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>210662</v>
+        <v>211571</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>247446</v>
+        <v>247795</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6608026666904148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6046729599167717</v>
+        <v>0.607283500557819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7102546626355332</v>
+        <v>0.711258153573513</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>350</v>
@@ -3393,19 +3393,19 @@
         <v>378455</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>354850</v>
+        <v>356100</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>401455</v>
+        <v>403095</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6632667848017477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6218982512775674</v>
+        <v>0.6240888936663791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7035754171490003</v>
+        <v>0.706450795668577</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>22708</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14624</v>
+        <v>14338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35300</v>
+        <v>32911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.138189495380163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08899477820540777</v>
+        <v>0.08725734613528996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2148230641282536</v>
+        <v>0.2002826864039598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -3518,19 +3518,19 @@
         <v>25009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16896</v>
+        <v>16143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36598</v>
+        <v>37392</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.118416718261751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0800015101716923</v>
+        <v>0.07643931857949465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1732897598103913</v>
+        <v>0.1770529954856465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -3539,19 +3539,19 @@
         <v>47716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34862</v>
+        <v>34918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62772</v>
+        <v>62736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1270691304310336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09283746698632886</v>
+        <v>0.09298697183043414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1671612932907781</v>
+        <v>0.1670664053044348</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>8935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4058</v>
+        <v>4645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16342</v>
+        <v>16119</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05437459922684219</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02469360423243119</v>
+        <v>0.02827028389598022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09945123655896168</v>
+        <v>0.09809440556156264</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -3589,19 +3589,19 @@
         <v>23698</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15225</v>
+        <v>15480</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35181</v>
+        <v>35691</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1122082633632988</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07209015635874226</v>
+        <v>0.07329974762854689</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1665798779368614</v>
+        <v>0.1689950080596105</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -3610,19 +3610,19 @@
         <v>32633</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22243</v>
+        <v>22628</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45349</v>
+        <v>45799</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08690070558465396</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05923265597689071</v>
+        <v>0.06025928335095396</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1207641108108125</v>
+        <v>0.1219631845914838</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>17920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10942</v>
+        <v>10060</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29376</v>
+        <v>28443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1090554101174903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06658906439099371</v>
+        <v>0.0612196184419102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.178771251205161</v>
+        <v>0.1730961072433187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3660,19 +3660,19 @@
         <v>38580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27602</v>
+        <v>27010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50583</v>
+        <v>51560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1826779141885549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1306965629073915</v>
+        <v>0.1278907517832396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2395123938659931</v>
+        <v>0.2441359849089343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -3681,19 +3681,19 @@
         <v>56500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43811</v>
+        <v>44792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74790</v>
+        <v>72767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1504612839022426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.116669121123386</v>
+        <v>0.11928104183514</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1991653203507169</v>
+        <v>0.1937787246438636</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>114759</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101463</v>
+        <v>102024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126714</v>
+        <v>126424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6983804952755045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6174640609617836</v>
+        <v>0.6208815258623854</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7711346906359159</v>
+        <v>0.7693676834087332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>113</v>
@@ -3731,19 +3731,19 @@
         <v>123906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108785</v>
+        <v>108180</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137487</v>
+        <v>137873</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5866971041863953</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5150960289238218</v>
+        <v>0.5122335187622836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6510025869129189</v>
+        <v>0.6528291350638969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>213</v>
@@ -3752,19 +3752,19 @@
         <v>238666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218397</v>
+        <v>217065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257146</v>
+        <v>258234</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6355688800820698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5815934175226429</v>
+        <v>0.5780450812542366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6847831119372034</v>
+        <v>0.6876788577286846</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>22791</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14745</v>
+        <v>14703</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34808</v>
+        <v>34806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1240775375596342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0802770281062172</v>
+        <v>0.08004757923204993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.189501611879493</v>
+        <v>0.1894899535663397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -3877,19 +3877,19 @@
         <v>38385</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27713</v>
+        <v>28657</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50839</v>
+        <v>52019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1178171337007006</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08505924277067653</v>
+        <v>0.08795791168170176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1560425093156743</v>
+        <v>0.1596641751191528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -3898,19 +3898,19 @@
         <v>61176</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48504</v>
+        <v>47127</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79702</v>
+        <v>77063</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1200741604392488</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09520254829614572</v>
+        <v>0.09249984845615029</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1564362297208519</v>
+        <v>0.15125568554747</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>4092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1035</v>
+        <v>1966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9539</v>
+        <v>11444</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02228031623695539</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005634790102469711</v>
+        <v>0.0107037395216864</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05193457618509488</v>
+        <v>0.06230464023670425</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -3948,19 +3948,19 @@
         <v>22259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14318</v>
+        <v>14043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33230</v>
+        <v>33144</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06832004942933553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0439464027955709</v>
+        <v>0.04310314486490664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1019952229262527</v>
+        <v>0.1017304158404535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -3969,19 +3969,19 @@
         <v>26351</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18109</v>
+        <v>17492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38697</v>
+        <v>37548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05172161405802275</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03554375248369662</v>
+        <v>0.0343326294129955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07595242531752454</v>
+        <v>0.07369830090212962</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>25908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17052</v>
+        <v>17740</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36534</v>
+        <v>37460</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1410477645001589</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09283533326837194</v>
+        <v>0.0965789861413531</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1988981046265791</v>
+        <v>0.2039392871763896</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -4019,19 +4019,19 @@
         <v>35439</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25488</v>
+        <v>24955</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49127</v>
+        <v>46943</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1087736428368393</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07823059407414036</v>
+        <v>0.07659574343991568</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1507866886686369</v>
+        <v>0.1440841126688147</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -4040,19 +4040,19 @@
         <v>61347</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47872</v>
+        <v>48617</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>78231</v>
+        <v>77637</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1204092429033305</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09396076956504854</v>
+        <v>0.09542273013121917</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1535498211332465</v>
+        <v>0.1523833333444471</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>130891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117384</v>
+        <v>116814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142967</v>
+        <v>143448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7125943817032516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6390582896418576</v>
+        <v>0.6359594359855532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7783379691028914</v>
+        <v>0.7809585605328322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>216</v>
@@ -4090,19 +4090,19 @@
         <v>229721</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>213779</v>
+        <v>213081</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>247914</v>
+        <v>245823</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7050891740331245</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6561573743884359</v>
+        <v>0.6540169667581338</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7609289856130632</v>
+        <v>0.7545111258574949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>342</v>
@@ -4111,19 +4111,19 @@
         <v>360612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>337769</v>
+        <v>338845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>379729</v>
+        <v>379203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.707794982599398</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6629599382184086</v>
+        <v>0.6650717889994852</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7453181827890556</v>
+        <v>0.7442855286267201</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>93880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76204</v>
+        <v>75818</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115515</v>
+        <v>114289</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1258485463053081</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1021535877763712</v>
+        <v>0.1016357524042215</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1548517019268081</v>
+        <v>0.1532070170970906</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>111</v>
@@ -4236,19 +4236,19 @@
         <v>116882</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97864</v>
+        <v>96308</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>139892</v>
+        <v>138118</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1054795728608847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08831630934255731</v>
+        <v>0.08691218235844062</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1262444234353654</v>
+        <v>0.1246433164143768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>198</v>
@@ -4257,19 +4257,19 @@
         <v>210762</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>183297</v>
+        <v>182810</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>239496</v>
+        <v>240360</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1136748802729339</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09886174121823742</v>
+        <v>0.09859885352307564</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1291724614268586</v>
+        <v>0.1296386238524817</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>41912</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31110</v>
+        <v>29442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57983</v>
+        <v>57343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05618353722391976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04170340966986085</v>
+        <v>0.03946715497200279</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07772846374799602</v>
+        <v>0.07686972253840391</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -4307,19 +4307,19 @@
         <v>95855</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76393</v>
+        <v>77960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115515</v>
+        <v>116099</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08650325837077455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06894057567607753</v>
+        <v>0.07035439002130728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1042454778537947</v>
+        <v>0.1047727907674417</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -4328,19 +4328,19 @@
         <v>137766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114689</v>
+        <v>117072</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>163155</v>
+        <v>163300</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07430434043688558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06185762573688984</v>
+        <v>0.06314301068737145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08799787213023166</v>
+        <v>0.08807629532353253</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>77597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61263</v>
+        <v>61094</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96391</v>
+        <v>98180</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1040205616308657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08212443095523446</v>
+        <v>0.08189824260337943</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1292144034729702</v>
+        <v>0.1316126294595905</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -4378,19 +4378,19 @@
         <v>131169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110979</v>
+        <v>110888</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155078</v>
+        <v>153989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1183723316166373</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1001520918696811</v>
+        <v>0.1000702893967536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1399493711854867</v>
+        <v>0.1389665968742707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -4399,19 +4399,19 @@
         <v>208765</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>182822</v>
+        <v>184249</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>241581</v>
+        <v>241505</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1125980019843003</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09860516286637339</v>
+        <v>0.09937521703048154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1302970271741665</v>
+        <v>0.1302562199462111</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>532587</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>506647</v>
+        <v>505455</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>558081</v>
+        <v>558146</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7139473548399065</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6791745455230717</v>
+        <v>0.6775765454995287</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7481230671555547</v>
+        <v>0.7482099818618889</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>713</v>
@@ -4449,19 +4449,19 @@
         <v>764198</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>732088</v>
+        <v>734223</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>796263</v>
+        <v>794961</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6896448371517035</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6606682229672695</v>
+        <v>0.6625941686766108</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7185821072132126</v>
+        <v>0.717407202056275</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1202</v>
@@ -4470,19 +4470,19 @@
         <v>1296784</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1255242</v>
+        <v>1254054</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1338711</v>
+        <v>1338301</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6994227773058802</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.677016857135746</v>
+        <v>0.6763762286139544</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7220357851942635</v>
+        <v>0.7218145764044864</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>21014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13600</v>
+        <v>13213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31230</v>
+        <v>31191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1166432444663881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07549295777604745</v>
+        <v>0.07334168930365581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1733531169536064</v>
+        <v>0.1731375042581971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -4835,19 +4835,19 @@
         <v>28178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19185</v>
+        <v>18991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40290</v>
+        <v>39316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.124218271390862</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0845766255954795</v>
+        <v>0.08372053766233366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1776143803508611</v>
+        <v>0.1733191003923067</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -4856,19 +4856,19 @@
         <v>49191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36432</v>
+        <v>36829</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64400</v>
+        <v>63692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1208652328168791</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08951453314768446</v>
+        <v>0.09049157083297132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1582337029572255</v>
+        <v>0.1564934519047448</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>7641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2716</v>
+        <v>2862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16480</v>
+        <v>15950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04241324200583495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01507543691780967</v>
+        <v>0.0158882535139565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09147502809339478</v>
+        <v>0.08853317508039374</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -4906,19 +4906,19 @@
         <v>16851</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9285</v>
+        <v>10084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25031</v>
+        <v>27531</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07428601020554247</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04093023731159914</v>
+        <v>0.04445574279146412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1103470667879275</v>
+        <v>0.1213667340728458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -4927,19 +4927,19 @@
         <v>24492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15676</v>
+        <v>16167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36014</v>
+        <v>35706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06017772751575428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03851580110109278</v>
+        <v>0.03972382682195357</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08848749275398009</v>
+        <v>0.08773031181257648</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>18354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11638</v>
+        <v>11193</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28669</v>
+        <v>28039</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1018786835225252</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0645981173872068</v>
+        <v>0.06212834743381812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1591351696598079</v>
+        <v>0.1556386170639706</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -4977,19 +4977,19 @@
         <v>19990</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12540</v>
+        <v>12245</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30502</v>
+        <v>29791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08812397475907725</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05528324093593446</v>
+        <v>0.05398139544788833</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1344661800883862</v>
+        <v>0.1313324503964145</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -4998,19 +4998,19 @@
         <v>38344</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26968</v>
+        <v>27874</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50976</v>
+        <v>52410</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09421241107984249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06626044803752243</v>
+        <v>0.06848741049117092</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1252495764956488</v>
+        <v>0.1287737797609139</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>133145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119553</v>
+        <v>120223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143838</v>
+        <v>143517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7390648300052518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6636181197636035</v>
+        <v>0.6673406650318702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7984229510819215</v>
+        <v>0.7966388487808744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -5048,19 +5048,19 @@
         <v>161821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149133</v>
+        <v>147350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174672</v>
+        <v>174768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7133717436445183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6574373678401447</v>
+        <v>0.6495748966149054</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7700220427729729</v>
+        <v>0.7704478714376739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>289</v>
@@ -5069,19 +5069,19 @@
         <v>294966</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>276510</v>
+        <v>275945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312691</v>
+        <v>313236</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7247446285875242</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6793963682088605</v>
+        <v>0.6780094902668091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7682955518886124</v>
+        <v>0.7696350606846641</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>21264</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13170</v>
+        <v>13114</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32152</v>
+        <v>32759</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08271316517906778</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05122766651293557</v>
+        <v>0.05101052194342412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1250636845352441</v>
+        <v>0.1274254012836551</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -5194,19 +5194,19 @@
         <v>26556</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18072</v>
+        <v>17491</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38133</v>
+        <v>39207</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07758541318432194</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05279963042391053</v>
+        <v>0.05110035232910151</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1114071329286947</v>
+        <v>0.11454498726028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>43</v>
@@ -5215,19 +5215,19 @@
         <v>47820</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34104</v>
+        <v>34653</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61954</v>
+        <v>62914</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0797848333728894</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05690001711271463</v>
+        <v>0.0578154427959135</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1033659596086396</v>
+        <v>0.104966591775611</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>13206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7206</v>
+        <v>7383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23504</v>
+        <v>22349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05136720598849928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02802925505390179</v>
+        <v>0.02871886394872843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09142382032619727</v>
+        <v>0.08693253342928722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -5265,19 +5265,19 @@
         <v>39129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27605</v>
+        <v>28257</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51773</v>
+        <v>52765</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1143171609805389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08064994207856459</v>
+        <v>0.08255466754335898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.151258178018253</v>
+        <v>0.15415643682187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -5286,19 +5286,19 @@
         <v>52335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39478</v>
+        <v>40144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67585</v>
+        <v>66677</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08731636179587247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0658657088733323</v>
+        <v>0.066976534483843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1127601392877384</v>
+        <v>0.111245213722898</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>37643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26472</v>
+        <v>26785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50005</v>
+        <v>52123</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1464219836613058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1029721503335837</v>
+        <v>0.1041876084395473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1945079176026727</v>
+        <v>0.2027464473645175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -5336,19 +5336,19 @@
         <v>29407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19930</v>
+        <v>20183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40875</v>
+        <v>42179</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0859146944956662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05822767917163642</v>
+        <v>0.05896468872409006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1194185339092385</v>
+        <v>0.1232293820930388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -5357,19 +5357,19 @@
         <v>67050</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51411</v>
+        <v>52534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>83430</v>
+        <v>84998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1118677736388773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08577502073797298</v>
+        <v>0.08764878941802917</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.139197084850936</v>
+        <v>0.1418136182004701</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>184971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168223</v>
+        <v>167593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>199607</v>
+        <v>199095</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7194976451711271</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6543490507413829</v>
+        <v>0.6518980071215925</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7764280902659362</v>
+        <v>0.7744374899908407</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>227</v>
@@ -5407,19 +5407,19 @@
         <v>247192</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230641</v>
+        <v>229670</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>263298</v>
+        <v>262565</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.722182731339473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6738300108108534</v>
+        <v>0.6709926958958816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7692388030216728</v>
+        <v>0.7670955388916971</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>401</v>
@@ -5428,19 +5428,19 @@
         <v>432162</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>406329</v>
+        <v>408267</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>450905</v>
+        <v>454786</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7210310311923608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.677931048744073</v>
+        <v>0.6811634338626137</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7523022888776499</v>
+        <v>0.7587778636308465</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>26984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17625</v>
+        <v>17470</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38814</v>
+        <v>38776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1619803359552868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1058011132293305</v>
+        <v>0.1048694897804973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2329951854913282</v>
+        <v>0.2327617940732828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -5553,19 +5553,19 @@
         <v>46534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35610</v>
+        <v>35933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60402</v>
+        <v>60367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1931768736291637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1478286609214425</v>
+        <v>0.1491714449395155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2507501946282271</v>
+        <v>0.2506021615507548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -5574,19 +5574,19 @@
         <v>73518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58093</v>
+        <v>56920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90769</v>
+        <v>89800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1804227192536055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1425681410855265</v>
+        <v>0.1396888047959113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2227586790930387</v>
+        <v>0.2203804851266787</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>11158</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5492</v>
+        <v>5815</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19517</v>
+        <v>18832</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06698154446551062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03296458101790859</v>
+        <v>0.03490897035273136</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1171558581340946</v>
+        <v>0.1130432968102246</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -5624,19 +5624,19 @@
         <v>23208</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14495</v>
+        <v>14964</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>34880</v>
+        <v>34041</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09634512651678012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06017211856867889</v>
+        <v>0.06212143158866106</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1447980098574637</v>
+        <v>0.141317152552511</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>32</v>
@@ -5645,19 +5645,19 @@
         <v>34367</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>23466</v>
+        <v>24459</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46881</v>
+        <v>47340</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08434034372914204</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05758796774428764</v>
+        <v>0.06002568236018838</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1150515313135439</v>
+        <v>0.1161797071165666</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>17918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10556</v>
+        <v>10699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27563</v>
+        <v>28301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1075576634576599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06336311396515999</v>
+        <v>0.06422638341350116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1654523485920513</v>
+        <v>0.1698880892737809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -5695,19 +5695,19 @@
         <v>29807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20199</v>
+        <v>20280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41428</v>
+        <v>41881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1237403913676793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08385348301811124</v>
+        <v>0.08418867700825258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1719832189031482</v>
+        <v>0.1738638567840164</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -5716,19 +5716,19 @@
         <v>47725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35710</v>
+        <v>34958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61116</v>
+        <v>62253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1171243683929608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08763621471280807</v>
+        <v>0.08579223932407476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.149987329233506</v>
+        <v>0.1527768741280563</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>110529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96822</v>
+        <v>97854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122399</v>
+        <v>123069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6634804561215427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5812018620526989</v>
+        <v>0.5873982013924153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.734737602010843</v>
+        <v>0.7387558782954918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -5766,19 +5766,19 @@
         <v>141337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125703</v>
+        <v>125164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156410</v>
+        <v>156145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5867376084863769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5218374126209413</v>
+        <v>0.5195980718006223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.649310274225391</v>
+        <v>0.6482100340174414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>233</v>
@@ -5787,19 +5787,19 @@
         <v>251866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232326</v>
+        <v>229712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>270545</v>
+        <v>270376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6181125686242916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5701578493257927</v>
+        <v>0.5637432700797912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6639537107871638</v>
+        <v>0.6635389406005112</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>19155</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11803</v>
+        <v>12025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28439</v>
+        <v>27900</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09017156435427749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05555986563768978</v>
+        <v>0.05660653751550858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1338742407474257</v>
+        <v>0.1313367291742457</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -5912,19 +5912,19 @@
         <v>37606</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26223</v>
+        <v>26892</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51878</v>
+        <v>52693</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1265647412738455</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08825627067666421</v>
+        <v>0.09050788685540685</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.17460083413686</v>
+        <v>0.1773435501344986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -5933,19 +5933,19 @@
         <v>56761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43483</v>
+        <v>43520</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73817</v>
+        <v>73659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1113925999544329</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08533538210393449</v>
+        <v>0.08540786069480112</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1448650019186981</v>
+        <v>0.1445556267092124</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>17197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10391</v>
+        <v>10337</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27929</v>
+        <v>26533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08095241479543665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04891274370258297</v>
+        <v>0.04866147182652877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1314726889783246</v>
+        <v>0.1249015195758255</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -5983,19 +5983,19 @@
         <v>27350</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18046</v>
+        <v>18557</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39558</v>
+        <v>40633</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09204752253385709</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06073372871942171</v>
+        <v>0.06245527250300057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1331348517845441</v>
+        <v>0.1367537262792933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -6004,19 +6004,19 @@
         <v>44547</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33178</v>
+        <v>33004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59528</v>
+        <v>60009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0874220252068867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06511111787436077</v>
+        <v>0.06476987386618278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1168237330472756</v>
+        <v>0.1177660411673151</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>30367</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21746</v>
+        <v>21320</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42177</v>
+        <v>42044</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1429514558435879</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1023658370552987</v>
+        <v>0.1003623510849509</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1985425187384049</v>
+        <v>0.1979196919613029</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -6054,19 +6054,19 @@
         <v>44730</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32705</v>
+        <v>33914</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57962</v>
+        <v>60159</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1505421286664629</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1100701514368308</v>
+        <v>0.1141399702994933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1950743517210922</v>
+        <v>0.2024689013171314</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>72</v>
@@ -6075,19 +6075,19 @@
         <v>75097</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60581</v>
+        <v>59607</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94383</v>
+        <v>90794</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1473776134873508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1188886091584082</v>
+        <v>0.1169773967333035</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1852247557999025</v>
+        <v>0.1781821392283813</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>145712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130294</v>
+        <v>131988</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157769</v>
+        <v>157983</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.685924565006698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6133464502488337</v>
+        <v>0.6213182369088098</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7426810407981603</v>
+        <v>0.7436851560297688</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -6125,19 +6125,19 @@
         <v>187441</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>171475</v>
+        <v>169707</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>205643</v>
+        <v>205043</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6308456075258346</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5771126054520282</v>
+        <v>0.571160617056643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6921069896213345</v>
+        <v>0.6900860499318812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>315</v>
@@ -6146,19 +6146,19 @@
         <v>333153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>310909</v>
+        <v>310034</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>353906</v>
+        <v>354092</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6538077613513296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6101543722612586</v>
+        <v>0.608436987753012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.694534816083884</v>
+        <v>0.6949010903402774</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>88417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1083203416077474</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -6271,19 +6271,19 @@
         <v>138873</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>117543</v>
+        <v>117960</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162193</v>
+        <v>163059</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1254346645454669</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1061683703414005</v>
+        <v>0.1065449827404733</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1464981455830135</v>
+        <v>0.1472796919456691</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>207</v>
@@ -6292,19 +6292,19 @@
         <v>227291</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>198451</v>
+        <v>201196</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>258400</v>
+        <v>260489</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1181716166053353</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1031775363106725</v>
+        <v>0.1046047621046136</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1343456727349309</v>
+        <v>0.1354318712570747</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>49202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35808</v>
+        <v>36181</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65096</v>
+        <v>64891</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06027732204917589</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04386902944287006</v>
+        <v>0.04432562658396894</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07974886286276116</v>
+        <v>0.07949769866537168</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>97</v>
@@ -6342,19 +6342,19 @@
         <v>106538</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>86373</v>
+        <v>86349</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128678</v>
+        <v>128819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0962283537466475</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07801466830806709</v>
+        <v>0.07799313513056695</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1162257479583501</v>
+        <v>0.1163537858909601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>143</v>
@@ -6363,19 +6363,19 @@
         <v>155740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131440</v>
+        <v>132748</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182866</v>
+        <v>182111</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08097130456824039</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06833769408060472</v>
+        <v>0.06901735929021682</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09507452726473292</v>
+        <v>0.09468224087948914</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>104282</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86262</v>
+        <v>86906</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>125751</v>
+        <v>124932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1277560312087184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1056803256042757</v>
+        <v>0.1064689697190167</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1540585092481126</v>
+        <v>0.1530547127426224</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -6413,19 +6413,19 @@
         <v>123935</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103744</v>
+        <v>104713</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147282</v>
+        <v>146178</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1119416015913964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09370512507816255</v>
+        <v>0.09457967652587546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1330297188258166</v>
+        <v>0.132032978542052</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -6434,19 +6434,19 @@
         <v>228216</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>202365</v>
+        <v>197204</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>257224</v>
+        <v>258001</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1186529953680848</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1052126094979319</v>
+        <v>0.1025292668117653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1337343664240627</v>
+        <v>0.1341385296886794</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>574357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>546604</v>
+        <v>546342</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>601352</v>
+        <v>602214</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7036463051343583</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6696461754605998</v>
+        <v>0.6693252415587562</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.736717950361402</v>
+        <v>0.7377742641846726</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>684</v>
@@ -6484,19 +6484,19 @@
         <v>737790</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>703944</v>
+        <v>704536</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>769413</v>
+        <v>770080</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6663953801164892</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6358245279253524</v>
+        <v>0.6363592266454505</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6949576191541361</v>
+        <v>0.6955608245190246</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1238</v>
@@ -6505,19 +6505,19 @@
         <v>1312147</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1268142</v>
+        <v>1269311</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1353665</v>
+        <v>1353768</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6822040834583395</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6593251175770748</v>
+        <v>0.6599330925217562</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7037895631277529</v>
+        <v>0.7038431306374899</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>13326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7625</v>
+        <v>8076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20320</v>
+        <v>21058</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1157672953567553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06623804157392758</v>
+        <v>0.07015684303834653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1765283256951335</v>
+        <v>0.1829375159617768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -6870,19 +6870,19 @@
         <v>23790</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17930</v>
+        <v>16926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32451</v>
+        <v>32350</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1407663814182359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1060906045498848</v>
+        <v>0.1001510581580987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.192014217145101</v>
+        <v>0.1914153934511144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -6891,19 +6891,19 @@
         <v>37116</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28865</v>
+        <v>28527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48546</v>
+        <v>47203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1306378832133586</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1015984573874611</v>
+        <v>0.1004065594646121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1708706702607425</v>
+        <v>0.1661423980066437</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>26620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18471</v>
+        <v>18412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38026</v>
+        <v>36090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2312597368627763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1604645918730021</v>
+        <v>0.1599508842106843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3303466364813853</v>
+        <v>0.3135246809097663</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -6941,19 +6941,19 @@
         <v>34654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27036</v>
+        <v>26344</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43431</v>
+        <v>42466</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2050514094220701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1599730612386661</v>
+        <v>0.1558783121502151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2569836381935374</v>
+        <v>0.2512732832356236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -6962,19 +6962,19 @@
         <v>61274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50395</v>
+        <v>50611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74077</v>
+        <v>73449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2156698375031288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1773778682059313</v>
+        <v>0.1781376013845918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2607332140230028</v>
+        <v>0.2585214593990472</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>21244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13825</v>
+        <v>14301</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30105</v>
+        <v>30143</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1845564719547443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1201013145326359</v>
+        <v>0.1242346430774239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2615348209568836</v>
+        <v>0.2618650449432094</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -7012,19 +7012,19 @@
         <v>36732</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28949</v>
+        <v>28735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46147</v>
+        <v>46747</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2173491000266944</v>
+        <v>0.2173491000266945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1712950992282166</v>
+        <v>0.1700276589670454</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2730541895263331</v>
+        <v>0.2766039774489985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -7033,19 +7033,19 @@
         <v>57976</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46119</v>
+        <v>46976</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69642</v>
+        <v>71232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2040630113375672</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1623281242462693</v>
+        <v>0.1653432932638731</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2451217209514781</v>
+        <v>0.2507182355940732</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>53919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43819</v>
+        <v>44197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65105</v>
+        <v>64806</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4684164958257239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3806732412337616</v>
+        <v>0.3839605003952328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.56559693879063</v>
+        <v>0.5629990256359255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -7083,19 +7083,19 @@
         <v>73826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63759</v>
+        <v>63822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84368</v>
+        <v>84945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4368331091329996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3772679751768449</v>
+        <v>0.3776407378564936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4992107409105683</v>
+        <v>0.5026270892141104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -7104,19 +7104,19 @@
         <v>127744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114585</v>
+        <v>112567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144244</v>
+        <v>142797</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4496292679459454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.403312791755818</v>
+        <v>0.3962079650545918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5077040078726973</v>
+        <v>0.5026123032242027</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>28497</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19438</v>
+        <v>19664</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39863</v>
+        <v>39611</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1488514492581458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1015322925673519</v>
+        <v>0.1027112269777663</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2082207834529656</v>
+        <v>0.2069010177538584</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -7229,19 +7229,19 @@
         <v>38839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30121</v>
+        <v>29772</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49186</v>
+        <v>49121</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1673506866279392</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1297847714300676</v>
+        <v>0.1282818877478367</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2119329755008393</v>
+        <v>0.211651511399728</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -7250,19 +7250,19 @@
         <v>67336</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55877</v>
+        <v>54282</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82740</v>
+        <v>84186</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1589885313674517</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1319318075452591</v>
+        <v>0.1281648111268999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1953583001544158</v>
+        <v>0.1987723181352334</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>51272</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38209</v>
+        <v>38792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64241</v>
+        <v>65574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2678134210637287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1995820233829912</v>
+        <v>0.2026252026864351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3355526361074301</v>
+        <v>0.3425189114677121</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -7300,19 +7300,19 @@
         <v>74785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62776</v>
+        <v>62885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87257</v>
+        <v>87553</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3222317342528833</v>
+        <v>0.3222317342528834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2704887830158833</v>
+        <v>0.2709591493086994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3759746392097069</v>
+        <v>0.3772468986792762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -7321,19 +7321,19 @@
         <v>126056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109192</v>
+        <v>109301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144373</v>
+        <v>146411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2976331859557204</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2578155206006451</v>
+        <v>0.2580709490718257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.340880268417572</v>
+        <v>0.3456935627310773</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>38077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27678</v>
+        <v>27727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50817</v>
+        <v>50537</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1988900677563454</v>
+        <v>0.1988900677563455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1445746519658961</v>
+        <v>0.1448268651242048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2654388573613489</v>
+        <v>0.2639745674638674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -7371,19 +7371,19 @@
         <v>35501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26914</v>
+        <v>26712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46746</v>
+        <v>46109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.152967960662832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1159688501955512</v>
+        <v>0.1150950216039634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2014173389953518</v>
+        <v>0.1986745701113303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -7392,19 +7392,19 @@
         <v>73578</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58039</v>
+        <v>58809</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87585</v>
+        <v>87855</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.173725994182188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1370368813274032</v>
+        <v>0.138854209610021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2067973856827238</v>
+        <v>0.2074360584540076</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>73601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60175</v>
+        <v>58360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89778</v>
+        <v>88599</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3844450619217798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.314314529794589</v>
+        <v>0.3048368741438952</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4689436753994501</v>
+        <v>0.4627867153646274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>114</v>
@@ -7442,19 +7442,19 @@
         <v>82958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70659</v>
+        <v>71179</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97720</v>
+        <v>101058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3574496184563454</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3044558499612909</v>
+        <v>0.3066967553947066</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4210572993322272</v>
+        <v>0.4354379281920323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -7463,19 +7463,19 @@
         <v>156558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>136353</v>
+        <v>138241</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>175942</v>
+        <v>177582</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3696522884946399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3219451965321046</v>
+        <v>0.3264015127183149</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4154183523182269</v>
+        <v>0.4192909707604512</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>33269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23374</v>
+        <v>24064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44090</v>
+        <v>44923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2470988506121555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.173605742983217</v>
+        <v>0.1787305536816091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3274705021031349</v>
+        <v>0.3336526920662718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -7588,19 +7588,19 @@
         <v>41068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31929</v>
+        <v>31380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52024</v>
+        <v>52640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2406154125794783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1870657469525834</v>
+        <v>0.1838502134390803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3048014659488286</v>
+        <v>0.3084125840727152</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -7609,19 +7609,19 @@
         <v>74338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61250</v>
+        <v>61140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90321</v>
+        <v>90690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2434744573339302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2006077685601058</v>
+        <v>0.2002484422863866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2958248536133264</v>
+        <v>0.2970325640197808</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>47322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35699</v>
+        <v>36298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59571</v>
+        <v>60350</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3514736598953353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.265145424414943</v>
+        <v>0.269597293658022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4424491349930967</v>
+        <v>0.4482358240925868</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>75</v>
@@ -7659,19 +7659,19 @@
         <v>55305</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45639</v>
+        <v>45001</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>65408</v>
+        <v>66804</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3240246962443039</v>
+        <v>0.324024696244304</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2673919554838441</v>
+        <v>0.2636539357311905</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.383218069079361</v>
+        <v>0.3913945640162239</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>122</v>
@@ -7680,19 +7680,19 @@
         <v>102627</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>86546</v>
+        <v>87365</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118406</v>
+        <v>119203</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3361290481554482</v>
+        <v>0.3361290481554481</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2834592893396282</v>
+        <v>0.286142018864581</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3878094996773452</v>
+        <v>0.3904203065295788</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>17933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10561</v>
+        <v>10600</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30655</v>
+        <v>30258</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1331934799087602</v>
+        <v>0.1331934799087603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07843647435108053</v>
+        <v>0.07872604078126284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2276802726177242</v>
+        <v>0.2247373101179206</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -7730,19 +7730,19 @@
         <v>22217</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16144</v>
+        <v>15860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30833</v>
+        <v>29680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1301650033225468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09458465824995238</v>
+        <v>0.09292242769218821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1806454127764816</v>
+        <v>0.1738904315570354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -7751,19 +7751,19 @@
         <v>40150</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30097</v>
+        <v>29787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54070</v>
+        <v>53447</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1315004907682745</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09857390498404398</v>
+        <v>0.0975603922810125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1770937115195334</v>
+        <v>0.1750535080670203</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>36115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26539</v>
+        <v>25833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49724</v>
+        <v>48788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2682340095837489</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1971102679108263</v>
+        <v>0.1918698450145572</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3693156151062923</v>
+        <v>0.362357911829769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -7801,19 +7801,19 @@
         <v>52091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41754</v>
+        <v>42417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64434</v>
+        <v>66004</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3051948878536709</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2446329979667021</v>
+        <v>0.2485156934354212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.377513668408258</v>
+        <v>0.3867074133879222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -7822,19 +7822,19 @@
         <v>88206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73694</v>
+        <v>73483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103209</v>
+        <v>104942</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.288896003742347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2413657087715385</v>
+        <v>0.2406760914292779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3380363479852685</v>
+        <v>0.3437100398775907</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>45873</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35619</v>
+        <v>35244</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58583</v>
+        <v>58878</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2179158120316663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1692051647759955</v>
+        <v>0.167423985915493</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.278292740519611</v>
+        <v>0.2796904436310464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -7947,19 +7947,19 @@
         <v>74585</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61739</v>
+        <v>62042</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89139</v>
+        <v>87947</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2471481214957492</v>
+        <v>0.2471481214957491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2045811493464872</v>
+        <v>0.2055871378551247</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2953772735288803</v>
+        <v>0.2914278604750597</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -7968,19 +7968,19 @@
         <v>120458</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105032</v>
+        <v>103926</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140589</v>
+        <v>138866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2351360340558126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2050249685443457</v>
+        <v>0.2028645573097195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2744311392423435</v>
+        <v>0.2710684783022595</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>63154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50446</v>
+        <v>52316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77554</v>
+        <v>77011</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3000051361338444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2396383933552151</v>
+        <v>0.2485206292564771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3684119977770879</v>
+        <v>0.3658325383140275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -8018,19 +8018,19 @@
         <v>102928</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88997</v>
+        <v>89294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118637</v>
+        <v>117248</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3410694840824073</v>
+        <v>0.3410694840824072</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.29490590211537</v>
+        <v>0.2958916916383914</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3931212596635951</v>
+        <v>0.3885213029999464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -8039,19 +8039,19 @@
         <v>166082</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147109</v>
+        <v>145682</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>185641</v>
+        <v>185979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.324195396907455</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.287159176753388</v>
+        <v>0.2843740805677623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3623737640553657</v>
+        <v>0.3630342616096456</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>38440</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28341</v>
+        <v>27995</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51332</v>
+        <v>51092</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1826023048815952</v>
+        <v>0.1826023048815953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1346280085241071</v>
+        <v>0.1329846453972966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2438474036852578</v>
+        <v>0.2427070499773651</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -8089,19 +8089,19 @@
         <v>59003</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47309</v>
+        <v>47141</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71233</v>
+        <v>70979</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1955153770483968</v>
+        <v>0.1955153770483967</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1567662570592563</v>
+        <v>0.1562084204973434</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2360423087886279</v>
+        <v>0.2352003197001323</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>126</v>
@@ -8110,19 +8110,19 @@
         <v>97442</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>80842</v>
+        <v>82902</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114821</v>
+        <v>115796</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1902091609187264</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1578047605814175</v>
+        <v>0.1618261337312547</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2241317359834309</v>
+        <v>0.226036010311834</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>63043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49783</v>
+        <v>50268</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77439</v>
+        <v>76671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.299476746952894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2364876519449183</v>
+        <v>0.2387915476139408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3678649353849355</v>
+        <v>0.3642159686773604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -8160,19 +8160,19 @@
         <v>65265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54104</v>
+        <v>52479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78935</v>
+        <v>79781</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2162670173734469</v>
+        <v>0.2162670173734468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1792814077524522</v>
+        <v>0.1738983043115942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2615630756640442</v>
+        <v>0.2643658018514056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -8181,19 +8181,19 @@
         <v>128308</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109691</v>
+        <v>109697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>148142</v>
+        <v>149071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2504594081180059</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2141191924661788</v>
+        <v>0.2141309293029556</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.289175459716784</v>
+        <v>0.2909880672703367</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>120965</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>100774</v>
+        <v>101181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141961</v>
+        <v>142831</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1856141028286721</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.15463216596573</v>
+        <v>0.1552562462081707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2178308564900694</v>
+        <v>0.2191661984023104</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>256</v>
@@ -8306,19 +8306,19 @@
         <v>178282</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>157805</v>
+        <v>157857</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>200502</v>
+        <v>201128</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2040899661325634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1806487709366804</v>
+        <v>0.1807081184303071</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2295259425350427</v>
+        <v>0.2302431489835393</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>385</v>
@@ -8327,19 +8327,19 @@
         <v>299248</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>272521</v>
+        <v>271733</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>328761</v>
+        <v>328849</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.196195660747419</v>
+        <v>0.1961956607474191</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1786731595291536</v>
+        <v>0.1781563593796125</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2155452650102627</v>
+        <v>0.2156033290308597</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>188368</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165256</v>
+        <v>165685</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213783</v>
+        <v>213135</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2890392325605572</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2535748463439609</v>
+        <v>0.2542341684945597</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3280362664974827</v>
+        <v>0.327042801509023</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>390</v>
@@ -8377,19 +8377,19 @@
         <v>267672</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>243205</v>
+        <v>246099</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>291967</v>
+        <v>293496</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3064194497804777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.27841096367493</v>
+        <v>0.2817234203578004</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3342311079408117</v>
+        <v>0.3359820584960715</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>588</v>
@@ -8398,19 +8398,19 @@
         <v>456040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>422759</v>
+        <v>422550</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>487047</v>
+        <v>492345</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2989932884078019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2771737190650663</v>
+        <v>0.2770361886503899</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3193227241374062</v>
+        <v>0.3227957765925398</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>115693</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98724</v>
+        <v>97012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139054</v>
+        <v>138004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1775245860244856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1514858913289216</v>
+        <v>0.1488586144035271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.213370144254819</v>
+        <v>0.2117590668387969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>229</v>
@@ -8448,19 +8448,19 @@
         <v>153453</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>136653</v>
+        <v>135455</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176066</v>
+        <v>174525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1756668146914169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1564345340474923</v>
+        <v>0.1550626788791122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2015524628644267</v>
+        <v>0.199789420909209</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>353</v>
@@ -8469,19 +8469,19 @@
         <v>269147</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>239659</v>
+        <v>242733</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>299950</v>
+        <v>296366</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1764605970439808</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1571276001491971</v>
+        <v>0.1591430075782774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1966563629890976</v>
+        <v>0.1943063709100052</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>226677</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>201429</v>
+        <v>203885</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>254764</v>
+        <v>253605</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3478220785862849</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3090803212408323</v>
+        <v>0.3128486195804648</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3909199053205722</v>
+        <v>0.3891413260001869</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>397</v>
@@ -8519,19 +8519,19 @@
         <v>274140</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>251345</v>
+        <v>249527</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>300759</v>
+        <v>300007</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.313823769395542</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2877294873381678</v>
+        <v>0.2856478063701949</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3442962005869793</v>
+        <v>0.3434349459335473</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>621</v>
@@ -8540,19 +8540,19 @@
         <v>500817</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>462321</v>
+        <v>464722</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>536861</v>
+        <v>536927</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3283504538007982</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3031114026152041</v>
+        <v>0.3046854811905472</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3519823874557935</v>
+        <v>0.3520255002294529</v>
       </c>
     </row>
     <row r="28">
